--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,42 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>2056016</t>
+  </si>
+  <si>
+    <t>BFGOODRICH</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>2021-06-12 16:36:43</t>
+  </si>
+  <si>
+    <t>LT2356517</t>
+  </si>
+  <si>
+    <t>GENERAL TIRE</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>2021-06-16 16:16:20</t>
   </si>
 </sst>
 </file>
@@ -77,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,6 +142,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
